--- a/biology/Zoologie/Ixamatus_broomi/Ixamatus_broomi.xlsx
+++ b/biology/Zoologie/Ixamatus_broomi/Ixamatus_broomi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ixamatus broomi est une espèce d'araignées mygalomorphes de la famille des Microstigmatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ixamatus broomi est une espèce d'araignées mygalomorphes de la famille des Microstigmatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elles se rencontrent dans le Nord-Est de la Nouvelle-Galles du Sud vers Hillgrove et dans le Sud-Est du Queensland dans les monts Richmond et D'Aguilar[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elles se rencontrent dans le Nord-Est de la Nouvelle-Galles du Sud vers Hillgrove et dans le Sud-Est du Queensland dans les monts Richmond et D'Aguilar,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6 mm de long sur 5 mm et l'abdomen 4,5 mm de long sur 4 mm[3].
-La carapace de la femelle décrite par Raven en 1982 mesure 4,75 mm de long sur 3,81 mm et l'abdomen 6,25 mm de long sur 4,25 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6 mm de long sur 5 mm et l'abdomen 4,5 mm de long sur 4 mm.
+La carapace de la femelle décrite par Raven en 1982 mesure 4,75 mm de long sur 3,81 mm et l'abdomen 6,25 mm de long sur 4,25 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du Dr Broom[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du Dr Broom.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hogg, 1901 : On Australian and New Zealand spiders of the suborder Mygalomorphae. Proceedings of the Zoological Society of London, vol. 1901, no , p. 218-279 (texte intégral).</t>
         </is>
